--- a/doc/长链协议.xlsx
+++ b/doc/长链协议.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Documents/git_repos/im-demo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E18074-16BA-4142-9C47-C86D18BBE126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812CDCC9-DDB1-3041-9F85-B4F21C996242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35600" yWindow="1720" windowWidth="33600" windowHeight="19440" xr2:uid="{231F5A49-B131-B747-841D-0C1C63A81422}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>序号</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>{"type":"business_ack","msgId":"xxxxxxxxxxxxxxxxxxxx"}</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>{"senderId":123,"receiverId":234,"content":"xxx"}</t>
+  </si>
+  <si>
+    <t>{"type":"business","msgId":"xxxxxxxxxxxxxxxxxxxx","subType":"text", "content":"json"}</t>
   </si>
 </sst>
 </file>
@@ -549,7 +558,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
@@ -558,7 +567,7 @@
     <col min="2" max="2" width="15.83203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="43.1640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="94.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="100.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -626,7 +635,9 @@
       <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="38">
       <c r="A5" s="6">
@@ -655,26 +666,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9111DD-0CEF-8447-B098-00F0AC8606A6}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="85.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14" style="10" customWidth="1"/>
+    <col min="3" max="3" width="85.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="25" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="25" customHeight="1">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/doc/长链协议.xlsx
+++ b/doc/长链协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Documents/git_repos/im-demo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812CDCC9-DDB1-3041-9F85-B4F21C996242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2438730-2D6E-9248-A3BC-66906498477B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35600" yWindow="1720" windowWidth="33600" windowHeight="19440" xr2:uid="{231F5A49-B131-B747-841D-0C1C63A81422}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{231F5A49-B131-B747-841D-0C1C63A81422}"/>
   </bookViews>
   <sheets>
     <sheet name="协议" sheetId="2" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
@@ -669,7 +669,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>

--- a/doc/长链协议.xlsx
+++ b/doc/长链协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Documents/git_repos/im-demo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2438730-2D6E-9248-A3BC-66906498477B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FEA23E-C813-6F41-86C7-D1E9374220E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{231F5A49-B131-B747-841D-0C1C63A81422}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{231F5A49-B131-B747-841D-0C1C63A81422}"/>
   </bookViews>
   <sheets>
     <sheet name="协议" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
@@ -112,6 +112,20 @@
   </si>
   <si>
     <t>{"type":"business","msgId":"xxxxxxxxxxxxxxxxxxxx","subType":"text", "content":"json"}</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>上线通知</t>
+  </si>
+  <si>
+    <t>{"type":"online","msgId":"xxxxxxxxxxxxxxxxxxxx","content":"PC|10000"}</t>
+  </si>
+  <si>
+    <t>type: online
+msgId: UUID
+content: 端 &amp; 客户ID</t>
   </si>
 </sst>
 </file>
@@ -555,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002FF98A-833C-7B44-BFFF-F228CCB553B1}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
@@ -622,43 +636,60 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25" customHeight="1">
+    <row r="4" spans="1:5" ht="57">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25" customHeight="1">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="38">
-      <c r="A5" s="6">
+    <row r="6" spans="1:5" ht="38">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="消息格式!A1" display="见消息格式" xr:uid="{6673D355-5ECB-934E-AD2A-FAFABC3E3AD3}"/>
+    <hyperlink ref="C5" location="消息格式!A1" display="见消息格式" xr:uid="{6673D355-5ECB-934E-AD2A-FAFABC3E3AD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -668,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9111DD-0CEF-8447-B098-00F0AC8606A6}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>

--- a/doc/长链协议.xlsx
+++ b/doc/长链协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Documents/git_repos/im-demo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FEA23E-C813-6F41-86C7-D1E9374220E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB36EE8-CCE0-FB44-BFCC-E0BD1FB3E542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{231F5A49-B131-B747-841D-0C1C63A81422}"/>
+    <workbookView xWindow="35140" yWindow="1140" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{231F5A49-B131-B747-841D-0C1C63A81422}"/>
   </bookViews>
   <sheets>
     <sheet name="协议" sheetId="2" r:id="rId1"/>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>序号</t>
   </si>
   <si>
     <t>消息类型</t>
-  </si>
-  <si>
-    <t>消息格式</t>
   </si>
   <si>
     <t>No.</t>
@@ -126,6 +123,33 @@
     <t>type: online
 msgId: UUID
 content: 端 &amp; 客户ID</t>
+  </si>
+  <si>
+    <t>{"senderId":123,"receiverId":234}</t>
+  </si>
+  <si>
+    <t>文本消息</t>
+  </si>
+  <si>
+    <t>消息已读通知</t>
+  </si>
+  <si>
+    <t>消息示例</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>read_notice</t>
+  </si>
+  <si>
+    <t>read_reply</t>
+  </si>
+  <si>
+    <t>{"senderId":123,"receiverId":234, "msg_id": "xxx"}</t>
+  </si>
+  <si>
+    <t>消息已读回复</t>
   </si>
 </sst>
 </file>
@@ -219,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -253,6 +277,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,7 +602,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
@@ -587,19 +617,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="38">
@@ -607,16 +637,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57">
@@ -624,16 +654,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57">
@@ -641,16 +671,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1">
@@ -658,16 +688,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38">
@@ -675,16 +705,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -697,40 +727,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9111DD-0CEF-8447-B098-00F0AC8606A6}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14" style="10" customWidth="1"/>
-    <col min="3" max="3" width="85.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="5"/>
+    <col min="2" max="3" width="14" style="10" customWidth="1"/>
+    <col min="4" max="4" width="85.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="25" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25" customHeight="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25" customHeight="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="25" customHeight="1">
-      <c r="A2" s="10">
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25" customHeight="1">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/长链协议.xlsx
+++ b/doc/长链协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Documents/git_repos/im-demo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB36EE8-CCE0-FB44-BFCC-E0BD1FB3E542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A15FE6-AF41-9E42-AE3A-BE7ED1721700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35140" yWindow="1140" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{231F5A49-B131-B747-841D-0C1C63A81422}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{231F5A49-B131-B747-841D-0C1C63A81422}"/>
   </bookViews>
   <sheets>
     <sheet name="协议" sheetId="2" r:id="rId1"/>
@@ -146,10 +146,11 @@
     <t>read_reply</t>
   </si>
   <si>
-    <t>{"senderId":123,"receiverId":234, "msg_id": "xxx"}</t>
-  </si>
-  <si>
     <t>消息已读回复</t>
+  </si>
+  <si>
+    <t>{"senderId":123,"receiverId":234, "msg_id": "xxx"}
+{"senderId":123,"receiverId":234}</t>
   </si>
 </sst>
 </file>
@@ -730,7 +731,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
@@ -793,7 +794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25" customHeight="1">
+    <row r="4" spans="1:5" ht="34">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -803,11 +804,11 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/长链协议.xlsx
+++ b/doc/长链协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Documents/git_repos/im-demo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A15FE6-AF41-9E42-AE3A-BE7ED1721700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEAFDA2-7115-844D-924E-D362E32C874C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{231F5A49-B131-B747-841D-0C1C63A81422}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>序号</t>
   </si>
@@ -149,8 +149,31 @@
     <t>消息已读回复</t>
   </si>
   <si>
-    <t>{"senderId":123,"receiverId":234, "msg_id": "xxx"}
-{"senderId":123,"receiverId":234}</t>
+    <t>group_text</t>
+  </si>
+  <si>
+    <t>群聊文本消息</t>
+  </si>
+  <si>
+    <t>group_read_notice</t>
+  </si>
+  <si>
+    <t>group_read_reply</t>
+  </si>
+  <si>
+    <t>{"senderId":123,"groupId":234,"content":"xxx"}
+{"senderId":123,"groupId":234,"receiverId":345, "content":"xxx"}</t>
+  </si>
+  <si>
+    <t>{"sender":123,"receiver":234, "msgId": "xxx"}
+{"sender":123,"receiver":234}</t>
+  </si>
+  <si>
+    <t>{"receiver":234, "group":345, "msgId": "xxx"}
+{"receiver":234, "group":345}</t>
+  </si>
+  <si>
+    <t>{"sender":123,"receiver":234,"group":345}</t>
   </si>
 </sst>
 </file>
@@ -603,7 +626,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
@@ -728,16 +751,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9111DD-0CEF-8447-B098-00F0AC8606A6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="10" customWidth="1"/>
-    <col min="2" max="3" width="14" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14" style="10" customWidth="1"/>
     <col min="4" max="4" width="85.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="12" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="5"/>
@@ -805,9 +829,60 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25" customHeight="1">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>36</v>
       </c>
     </row>

--- a/doc/长链协议.xlsx
+++ b/doc/长链协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Documents/git_repos/im-demo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEAFDA2-7115-844D-924E-D362E32C874C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D728441-F291-4646-8E7B-17F9DAB8473A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{231F5A49-B131-B747-841D-0C1C63A81422}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>序号</t>
   </si>
@@ -128,12 +128,6 @@
     <t>{"senderId":123,"receiverId":234}</t>
   </si>
   <si>
-    <t>文本消息</t>
-  </si>
-  <si>
-    <t>消息已读通知</t>
-  </si>
-  <si>
     <t>消息示例</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>read_reply</t>
   </si>
   <si>
-    <t>消息已读回复</t>
-  </si>
-  <si>
     <t>group_text</t>
   </si>
   <si>
@@ -161,19 +152,73 @@
     <t>group_read_reply</t>
   </si>
   <si>
-    <t>{"senderId":123,"groupId":234,"content":"xxx"}
-{"senderId":123,"groupId":234,"receiverId":345, "content":"xxx"}</t>
-  </si>
-  <si>
-    <t>{"sender":123,"receiver":234, "msgId": "xxx"}
-{"sender":123,"receiver":234}</t>
-  </si>
-  <si>
-    <t>{"receiver":234, "group":345, "msgId": "xxx"}
-{"receiver":234, "group":345}</t>
-  </si>
-  <si>
     <t>{"sender":123,"receiver":234,"group":345}</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>client to server</t>
+  </si>
+  <si>
+    <t>server to client</t>
+  </si>
+  <si>
+    <t>{"senderId":123,"receiverId":234,"content":"xxx", "createdTime":"2020-11-17 18:46:51", "status":"initial"}</t>
+  </si>
+  <si>
+    <t>{"sender":123,"receiver":234}</t>
+  </si>
+  <si>
+    <t>{"sender":123,"receiver":234, "msgId": "xxx"}</t>
+  </si>
+  <si>
+    <t>消息已读回复，当前聊天窗口实时回复</t>
+  </si>
+  <si>
+    <t>消息已读回复，切换聊系人时回复</t>
+  </si>
+  <si>
+    <t>{"senderId":123,"groupId":234,"content":"xxx"}</t>
+  </si>
+  <si>
+    <t>{"senderId":123,"groupId":234, "content":"xxx", "createdTime":"2020-11-17 18:46:51", "status":"initial"}</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>for sender
+{
+    "senderId":"oyl",
+    "groupId":"group",
+    "content":"123",
+    "createdTime":"2020-11-18 13:56:23",
+    "unread":[
+        "Y0010081",
+        "Y0009497"
+    ]
+}
+for receiver
+{
+    "senderId":"A1019088",
+    "groupId":"group",
+    "content":"123",
+    "status":"read",
+    "createdTime":"2020-11-18 13:56:29"
+}</t>
+  </si>
+  <si>
+    <t>{"receiver":234, "group":345, "msgId": "xxx"}</t>
+  </si>
+  <si>
+    <t>{"receiver":234, "group":345}</t>
+  </si>
+  <si>
+    <t>消息已读通知(sender not used)</t>
+  </si>
+  <si>
+    <t>文本消息(receiverId not used)</t>
   </si>
 </sst>
 </file>
@@ -239,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -262,12 +307,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -306,6 +388,33 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -626,7 +735,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
@@ -751,23 +860,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9111DD-0CEF-8447-B098-00F0AC8606A6}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="85.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="5"/>
+    <col min="2" max="3" width="22.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14" style="10" customWidth="1"/>
+    <col min="5" max="5" width="150.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25" customHeight="1">
+    <row r="1" spans="1:6" ht="28" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -775,118 +884,239 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28" customHeight="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="28" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="28" customHeight="1">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28" customHeight="1">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28" customHeight="1">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" ht="323">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="28" customHeight="1">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25" customHeight="1">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25" customHeight="1">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="34">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="34">
-      <c r="A5" s="6">
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28" customHeight="1">
+      <c r="A12" s="14">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="25" customHeight="1">
-      <c r="A6" s="6">
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="6">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>